--- a/ctwedge.parent/ctwedge.fmtester/experimentData/ACTS_Generation_from_scratch_new.xlsx
+++ b/ctwedge.parent/ctwedge.fmtester/experimentData/ACTS_Generation_from_scratch_new.xlsx
@@ -276,216 +276,216 @@
     </row>
     <row r="3">
       <c r="B3" t="n">
-        <v>543.0</v>
+        <v>481.0</v>
       </c>
       <c r="C3" t="n">
-        <v>756.0</v>
+        <v>729.0</v>
       </c>
       <c r="D3" t="n">
-        <v>58.0</v>
+        <v>49.0</v>
       </c>
       <c r="E3" t="n">
-        <v>100.0</v>
+        <v>92.0</v>
       </c>
       <c r="F3" t="n">
-        <v>154.0</v>
+        <v>141.0</v>
       </c>
       <c r="G3" t="n">
-        <v>66.0</v>
+        <v>62.0</v>
       </c>
       <c r="H3" t="n">
-        <v>66.0</v>
+        <v>55.0</v>
       </c>
       <c r="I3" t="n">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="J3" t="n">
-        <v>48.0</v>
+        <v>50.0</v>
       </c>
       <c r="K3" t="n">
-        <v>45.0</v>
+        <v>61.0</v>
       </c>
       <c r="L3" t="n">
-        <v>51.0</v>
+        <v>56.0</v>
       </c>
       <c r="M3" t="n">
-        <v>155.0</v>
+        <v>141.0</v>
       </c>
       <c r="N3" t="n">
-        <v>36.0</v>
+        <v>33.0</v>
       </c>
       <c r="O3" t="n">
-        <v>66.0</v>
+        <v>54.0</v>
       </c>
       <c r="P3" t="n">
-        <v>86.0</v>
+        <v>78.0</v>
       </c>
       <c r="Q3" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="R3" t="n">
-        <v>52.0</v>
+        <v>56.0</v>
       </c>
       <c r="S3" t="n">
-        <v>119.0</v>
+        <v>126.0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.0</v>
+        <v>210.0</v>
       </c>
       <c r="U3" t="n">
-        <v>338.0</v>
+        <v>344.0</v>
       </c>
       <c r="V3" t="n">
-        <v>51.0</v>
+        <v>70.0</v>
       </c>
       <c r="W3" t="n">
-        <v>91.0</v>
+        <v>118.0</v>
       </c>
       <c r="X3" t="n">
         <v>99.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.0</v>
+        <v>130.0</v>
       </c>
       <c r="Z3" t="n">
-        <v>264.0</v>
+        <v>341.0</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.0</v>
+        <v>329.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.0</v>
+        <v>293.0</v>
       </c>
       <c r="AC3" t="n">
-        <v>454.0</v>
+        <v>726.0</v>
       </c>
       <c r="AD3" t="n">
-        <v>282.0</v>
+        <v>313.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>44.0</v>
+        <v>35.0</v>
       </c>
       <c r="AF3" t="n">
-        <v>53.0</v>
+        <v>45.0</v>
       </c>
       <c r="AG3" t="n">
-        <v>127.0</v>
+        <v>115.0</v>
       </c>
       <c r="AH3" t="n">
-        <v>289.0</v>
+        <v>193.0</v>
       </c>
       <c r="AI3" t="n">
-        <v>612.0</v>
+        <v>686.0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>856.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="n">
-        <v>357.0</v>
+        <v>351.0</v>
       </c>
       <c r="C4" t="n">
-        <v>572.0</v>
+        <v>603.0</v>
       </c>
       <c r="D4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="H4" t="n">
         <v>25.0</v>
       </c>
-      <c r="E4" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23.0</v>
-      </c>
       <c r="I4" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="J4" t="n">
         <v>32.0</v>
       </c>
-      <c r="J4" t="n">
-        <v>25.0</v>
-      </c>
       <c r="K4" t="n">
-        <v>34.0</v>
+        <v>37.0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="M4" t="n">
-        <v>128.0</v>
+        <v>134.0</v>
       </c>
       <c r="N4" t="n">
-        <v>26.0</v>
+        <v>53.0</v>
       </c>
       <c r="O4" t="n">
-        <v>40.0</v>
+        <v>76.0</v>
       </c>
       <c r="P4" t="n">
-        <v>59.0</v>
+        <v>102.0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="R4" t="n">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="S4" t="n">
+        <v>74.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>142.0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>94.0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>137.0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>257.0</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>323.0</v>
+      </c>
+      <c r="AB4" t="n">
         <v>204.0</v>
       </c>
-      <c r="T4" t="n">
-        <v>176.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>224.0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>70.0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>356.0</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>181.0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>216.0</v>
-      </c>
       <c r="AC4" t="n">
-        <v>249.0</v>
+        <v>255.0</v>
       </c>
       <c r="AD4" t="n">
-        <v>209.0</v>
+        <v>233.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="AF4" t="n">
-        <v>29.0</v>
+        <v>24.0</v>
       </c>
       <c r="AG4" t="n">
-        <v>74.0</v>
+        <v>64.0</v>
       </c>
       <c r="AH4" t="n">
-        <v>122.0</v>
+        <v>111.0</v>
       </c>
       <c r="AI4" t="n">
-        <v>549.0</v>
+        <v>570.0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>763.0</v>
+        <v>905.0</v>
       </c>
     </row>
   </sheetData>
